--- a/data/El Bosque.xlsx
+++ b/data/El Bosque.xlsx
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
